--- a/CSAT_Performance_Reports.xlsx
+++ b/CSAT_Performance_Reports.xlsx
@@ -43,8 +43,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF9999"/>
-        <bgColor rgb="00FF9999"/>
+        <fgColor rgb="00FFD966"/>
+        <bgColor rgb="00FFD966"/>
       </patternFill>
     </fill>
     <fill>
@@ -55,8 +55,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFD966"/>
-        <bgColor rgb="00FFD966"/>
+        <fgColor rgb="00FF9999"/>
+        <bgColor rgb="00FF9999"/>
       </patternFill>
     </fill>
   </fills>
@@ -165,8 +165,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_Daywise_Report" displayName="Table_Daywise_Report" ref="A1:F6" headerRowCount="1">
-  <autoFilter ref="A1:F6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_Daywise_Report" displayName="Table_Daywise_Report" ref="A1:F8" headerRowCount="1">
+  <autoFilter ref="A1:F8"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Date"/>
     <tableColumn id="2" name="CSAT1"/>
@@ -180,8 +180,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_Agentwise_Report" displayName="Table_Agentwise_Report" ref="A1:F10" headerRowCount="1">
-  <autoFilter ref="A1:F10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_Agentwise_Report" displayName="Table_Agentwise_Report" ref="A1:F16" headerRowCount="1">
+  <autoFilter ref="A1:F16"/>
   <tableColumns count="6">
     <tableColumn id="1" name="AGENT ID"/>
     <tableColumn id="2" name="CSAT1"/>
@@ -195,8 +195,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_Negative_Responses" displayName="Table_Negative_Responses" ref="A1:R5" headerRowCount="1">
-  <autoFilter ref="A1:R5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_Negative_Responses" displayName="Table_Negative_Responses" ref="A1:R8" headerRowCount="1">
+  <autoFilter ref="A1:R8"/>
   <tableColumns count="18">
     <tableColumn id="1" name="docketNumber"/>
     <tableColumn id="2" name="mobileNo"/>
@@ -222,8 +222,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_Daywise_Agent_Performance" displayName="Table_Daywise_Agent_Performance" ref="A1:G11" headerRowCount="1">
-  <autoFilter ref="A1:G11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_Daywise_Agent_Performance" displayName="Table_Daywise_Agent_Performance" ref="A1:G17" headerRowCount="1">
+  <autoFilter ref="A1:G17"/>
   <tableColumns count="7">
     <tableColumn id="1" name="DATE"/>
     <tableColumn id="2" name="AGENT ID"/>
@@ -526,7 +526,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,19 +573,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -598,7 +598,7 @@
       <c r="C3" t="n">
         <v>0</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
@@ -615,10 +615,10 @@
       <c r="B4" t="n">
         <v>0</v>
       </c>
-      <c r="C4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="n">
+      <c r="C4" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
@@ -632,27 +632,27 @@
       <c r="A5" s="5" t="n">
         <v>45934</v>
       </c>
-      <c r="B5" s="6" t="n">
+      <c r="B5" s="3" t="n">
         <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
-      <c r="D5" s="4" t="n">
-        <v>3</v>
+      <c r="D5" s="3" t="n">
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
         <v>45935</v>
       </c>
-      <c r="B6" s="6" t="n">
+      <c r="B6" s="3" t="n">
         <v>2</v>
       </c>
       <c r="C6" t="n">
@@ -664,8 +664,48 @@
       <c r="E6" t="n">
         <v>2</v>
       </c>
-      <c r="F6" s="3" t="n">
-        <v>1</v>
+      <c r="F6" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n">
+        <v>45936</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
+        <v>45937</v>
+      </c>
+      <c r="B8" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>2.25</v>
       </c>
     </row>
   </sheetData>
@@ -682,7 +722,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -725,51 +765,51 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SBM202</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
+          <t>SBM150</t>
+        </is>
+      </c>
+      <c r="B2" s="6" t="n">
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="n">
-        <v>1</v>
+      <c r="D2" t="n">
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="F2" s="4" t="n">
-        <v>3</v>
+      <c r="F2" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SBM554</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="n">
-        <v>1</v>
+          <t>SBM202</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
+      <c r="D3" s="6" t="n">
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="3" t="n">
-        <v>1</v>
+      <c r="F3" s="4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SBM692</t>
+          <t>SBM422</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -778,7 +818,7 @@
       <c r="C4" t="n">
         <v>0</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
@@ -791,29 +831,29 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SBM967</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
+          <t>SBM554</t>
+        </is>
+      </c>
+      <c r="B5" s="6" t="n">
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
-      <c r="D5" s="3" t="n">
-        <v>1</v>
+      <c r="D5" t="n">
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="F5" s="4" t="n">
-        <v>3</v>
+      <c r="F5" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SBM990</t>
+          <t>SBM692</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -822,7 +862,7 @@
       <c r="C6" t="n">
         <v>0</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E6" t="n">
@@ -835,89 +875,221 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>VPS111</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
+          <t>SBM703</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="n">
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
-      <c r="D7" s="3" t="n">
-        <v>1</v>
+      <c r="D7" t="n">
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
       </c>
-      <c r="F7" s="4" t="n">
-        <v>3</v>
+      <c r="F7" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>VPS228</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="n">
-        <v>1</v>
+          <t>SBM744</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
+      <c r="D8" s="6" t="n">
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
       </c>
-      <c r="F8" s="3" t="n">
-        <v>1</v>
+      <c r="F8" s="4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>VPS236</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3" t="n">
-        <v>1</v>
+          <t>SBM901</t>
+        </is>
+      </c>
+      <c r="B9" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
-      </c>
-      <c r="F9" s="3" t="n">
-        <v>1.5</v>
+        <v>1</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>SBM967</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>VPS111</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>VPS228</t>
+        </is>
+      </c>
+      <c r="B12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>VPS236</t>
+        </is>
+      </c>
+      <c r="B13" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>VPS237</t>
         </is>
       </c>
-      <c r="B10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3" t="n">
-        <v>1</v>
+      <c r="B14" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>VPS245</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>VPS256</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -934,7 +1106,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1336,6 +1508,234 @@
       </c>
       <c r="R5" s="5" t="n">
         <v>45935</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>J062464936011</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7639942386</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>06-10-2025 06:49 AM</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CSAT1 </t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>06-10-2025 07:14 AM</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>QUERY</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>PREPAID</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>SERVICES</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>VOICE SERVICES</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>SPEECH MUFFLING</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NAGERCOIL</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>TAMILNADU</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>TAMILNADU</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>SBM901</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" s="5" t="n">
+        <v>45936</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>J062565004263</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>9188523921</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>06-10-2025 12:42 PM</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CSAT 1</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>06-10-2025 12:48 PM</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>QUERY</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>PREPAID</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>SERVICES</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>VOICE SERVICES</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>ERROR IN CONNECTION</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>CALICUT</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>KERALA</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>KERALA</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>SBM150</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="5" t="n">
+        <v>45936</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>J072465209803</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>8903463029</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>07-10-2025 08:17 AM</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CSAT 1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>07-10-2025 08:18 AM</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>COMPLAINT</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>GSM</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PREPAID</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>NETWORK</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>VOLTE NOT WORKING</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>VELLORE</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>TAMILNADU</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>TAMILNADU</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>SBM703</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="5" t="n">
+        <v>45937</v>
       </c>
     </row>
   </sheetData>
@@ -1352,7 +1752,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1459,7 +1859,7 @@
       <c r="C4" t="n">
         <v>0</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
@@ -1481,7 +1881,7 @@
           <t>SBM554</t>
         </is>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
@@ -1493,7 +1893,7 @@
       <c r="F5" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="3" t="n">
+      <c r="G5" s="6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1528,7 +1928,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SBM990</t>
+          <t>VPS111</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -1553,35 +1953,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>VPS111</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
+          <t>VPS228</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
       </c>
-      <c r="G8" s="4" t="n">
-        <v>3</v>
+      <c r="G8" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
-        <v>45934</v>
+        <v>45935</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>VPS228</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="n">
+          <t>VPS236</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
@@ -1593,7 +1993,7 @@
       <c r="F9" t="n">
         <v>1</v>
       </c>
-      <c r="G9" s="3" t="n">
+      <c r="G9" s="6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,10 +2003,10 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>VPS236</t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="n">
+          <t>VPS237</t>
+        </is>
+      </c>
+      <c r="C10" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D10" t="n">
@@ -1618,20 +2018,20 @@
       <c r="F10" t="n">
         <v>1</v>
       </c>
-      <c r="G10" s="3" t="n">
+      <c r="G10" s="6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
-        <v>45935</v>
+        <v>45936</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>VPS237</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="n">
+          <t>SBM150</t>
+        </is>
+      </c>
+      <c r="C11" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D11" t="n">
@@ -1643,8 +2043,158 @@
       <c r="F11" t="n">
         <v>1</v>
       </c>
-      <c r="G11" s="3" t="n">
-        <v>1</v>
+      <c r="G11" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="n">
+        <v>45936</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>SBM901</t>
+        </is>
+      </c>
+      <c r="C12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="n">
+        <v>45936</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>VPS245</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="n">
+        <v>45937</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>SBM422</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="n">
+        <v>45937</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>SBM703</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="n">
+        <v>45937</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>SBM744</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="n">
+        <v>45937</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>VPS256</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/CSAT_Performance_Reports.xlsx
+++ b/CSAT_Performance_Reports.xlsx
@@ -165,8 +165,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_Daywise_Report" displayName="Table_Daywise_Report" ref="A1:F8" headerRowCount="1">
-  <autoFilter ref="A1:F8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_Daywise_Report" displayName="Table_Daywise_Report" ref="A1:F10" headerRowCount="1">
+  <autoFilter ref="A1:F10"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Date"/>
     <tableColumn id="2" name="CSAT1"/>
@@ -180,8 +180,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_Agentwise_Report" displayName="Table_Agentwise_Report" ref="A1:F16" headerRowCount="1">
-  <autoFilter ref="A1:F16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_Agentwise_Report" displayName="Table_Agentwise_Report" ref="A1:F18" headerRowCount="1">
+  <autoFilter ref="A1:F18"/>
   <tableColumns count="6">
     <tableColumn id="1" name="AGENT ID"/>
     <tableColumn id="2" name="CSAT1"/>
@@ -195,8 +195,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_Negative_Responses" displayName="Table_Negative_Responses" ref="A1:R8" headerRowCount="1">
-  <autoFilter ref="A1:R8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_Negative_Responses" displayName="Table_Negative_Responses" ref="A1:R9" headerRowCount="1">
+  <autoFilter ref="A1:R9"/>
   <tableColumns count="18">
     <tableColumn id="1" name="docketNumber"/>
     <tableColumn id="2" name="mobileNo"/>
@@ -222,8 +222,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_Daywise_Agent_Performance" displayName="Table_Daywise_Agent_Performance" ref="A1:G17" headerRowCount="1">
-  <autoFilter ref="A1:G17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_Daywise_Agent_Performance" displayName="Table_Daywise_Agent_Performance" ref="A1:G20" headerRowCount="1">
+  <autoFilter ref="A1:G20"/>
   <tableColumns count="7">
     <tableColumn id="1" name="DATE"/>
     <tableColumn id="2" name="AGENT ID"/>
@@ -526,7 +526,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,19 +573,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="3">
@@ -706,6 +706,46 @@
       </c>
       <c r="F8" s="4" t="n">
         <v>2.25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="n">
+        <v>45938</v>
+      </c>
+      <c r="B9" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="n">
+        <v>45939</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -722,7 +762,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -790,8 +830,8 @@
           <t>SBM202</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>0</v>
+      <c r="B3" s="6" t="n">
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -800,10 +840,10 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -985,111 +1025,155 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>VPS228</t>
-        </is>
-      </c>
-      <c r="B12" s="6" t="n">
-        <v>1</v>
+          <t>VPS214</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
-      <c r="D12" t="n">
-        <v>0</v>
+      <c r="D12" s="6" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
       </c>
-      <c r="F12" s="6" t="n">
-        <v>1</v>
+      <c r="F12" s="4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>VPS236</t>
+          <t>VPS228</t>
         </is>
       </c>
       <c r="B13" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="6" t="n">
-        <v>1</v>
+      <c r="C13" t="n">
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>VPS237</t>
+          <t>VPS236</t>
         </is>
       </c>
       <c r="B14" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
+      <c r="C14" s="6" t="n">
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>VPS245</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
+          <t>VPS237</t>
+        </is>
+      </c>
+      <c r="B15" s="6" t="n">
+        <v>1</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
-      <c r="D15" s="6" t="n">
-        <v>1</v>
+      <c r="D15" t="n">
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
       </c>
-      <c r="F15" s="4" t="n">
-        <v>3</v>
+      <c r="F15" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>VPS245</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>VPS256</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="4" t="n">
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>VPS264</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1106,7 +1190,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1736,6 +1820,82 @@
       </c>
       <c r="R8" s="5" t="n">
         <v>45937</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>J082665608785</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>9445345417</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>08-10-2025 07:14 PM</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>CSAT 1</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>08-10-2025 07:19 PM</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>QUERY</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>PREPAID</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>SERVICES</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>PLANS AND VALIDITY DETAILS</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>ENQUIRY ON BALANCE AND VALIDITY</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>BSS_WEST OA_1</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>CHENNAI</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>TAMILNADU</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>SBM202</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="5" t="n">
+        <v>45938</v>
       </c>
     </row>
   </sheetData>
@@ -1752,7 +1912,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2197,6 +2357,81 @@
         <v>2</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" s="5" t="n">
+        <v>45938</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>SBM202</t>
+        </is>
+      </c>
+      <c r="C18" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="n">
+        <v>45939</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>VPS214</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="n">
+        <v>45939</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>VPS264</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">

--- a/CSAT_Performance_Reports.xlsx
+++ b/CSAT_Performance_Reports.xlsx
@@ -165,8 +165,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_Daywise_Report" displayName="Table_Daywise_Report" ref="A1:F10" headerRowCount="1">
-  <autoFilter ref="A1:F10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_Daywise_Report" displayName="Table_Daywise_Report" ref="A1:F12" headerRowCount="1">
+  <autoFilter ref="A1:F12"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Date"/>
     <tableColumn id="2" name="CSAT1"/>
@@ -180,8 +180,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_Agentwise_Report" displayName="Table_Agentwise_Report" ref="A1:F18" headerRowCount="1">
-  <autoFilter ref="A1:F18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_Agentwise_Report" displayName="Table_Agentwise_Report" ref="A1:F20" headerRowCount="1">
+  <autoFilter ref="A1:F20"/>
   <tableColumns count="6">
     <tableColumn id="1" name="AGENT ID"/>
     <tableColumn id="2" name="CSAT1"/>
@@ -222,8 +222,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_Daywise_Agent_Performance" displayName="Table_Daywise_Agent_Performance" ref="A1:G20" headerRowCount="1">
-  <autoFilter ref="A1:G20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_Daywise_Agent_Performance" displayName="Table_Daywise_Agent_Performance" ref="A1:G22" headerRowCount="1">
+  <autoFilter ref="A1:G22"/>
   <tableColumns count="7">
     <tableColumn id="1" name="DATE"/>
     <tableColumn id="2" name="AGENT ID"/>
@@ -526,7 +526,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -579,13 +579,13 @@
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.05</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="3">
@@ -745,6 +745,46 @@
         <v>2</v>
       </c>
       <c r="F10" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="n">
+        <v>45940</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="n">
+        <v>45941</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -762,7 +802,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1003,7 +1043,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>VPS111</t>
+          <t>SBM990</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1025,7 +1065,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>VPS214</t>
+          <t>VPS111</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1047,51 +1087,51 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>VPS228</t>
-        </is>
-      </c>
-      <c r="B13" s="6" t="n">
-        <v>1</v>
+          <t>VPS193</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
-      <c r="D13" t="n">
-        <v>0</v>
+      <c r="D13" s="6" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
       </c>
-      <c r="F13" s="6" t="n">
-        <v>1</v>
+      <c r="F13" s="4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>VPS236</t>
-        </is>
-      </c>
-      <c r="B14" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
+          <t>VPS214</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
-      </c>
-      <c r="F14" s="6" t="n">
-        <v>1.5</v>
+        <v>1</v>
+      </c>
+      <c r="F14" s="4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>VPS237</t>
+          <t>VPS228</t>
         </is>
       </c>
       <c r="B15" s="6" t="n">
@@ -1113,36 +1153,36 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>VPS245</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="6" t="n">
-        <v>1</v>
+          <t>VPS236</t>
+        </is>
+      </c>
+      <c r="B16" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>VPS256</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" s="6" t="n">
-        <v>1</v>
+          <t>VPS237</t>
+        </is>
+      </c>
+      <c r="B17" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1150,29 +1190,73 @@
       <c r="E17" t="n">
         <v>1</v>
       </c>
-      <c r="F17" s="4" t="n">
-        <v>2</v>
+      <c r="F17" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>VPS245</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>VPS256</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>VPS264</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="4" t="n">
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1912,7 +1996,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2432,6 +2516,56 @@
         <v>3</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" s="5" t="n">
+        <v>45940</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>SBM990</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="n">
+        <v>45941</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>VPS193</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">

--- a/CSAT_Performance_Reports.xlsx
+++ b/CSAT_Performance_Reports.xlsx
@@ -43,12 +43,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFD966"/>
-        <bgColor rgb="00FFD966"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00A9D18E"/>
         <bgColor rgb="00A9D18E"/>
       </patternFill>
@@ -57,6 +51,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00FF9999"/>
         <bgColor rgb="00FF9999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFD966"/>
+        <bgColor rgb="00FFD966"/>
       </patternFill>
     </fill>
   </fills>
@@ -85,8 +85,8 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -180,8 +180,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_Agentwise_Report" displayName="Table_Agentwise_Report" ref="A1:F20" headerRowCount="1">
-  <autoFilter ref="A1:F20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_Agentwise_Report" displayName="Table_Agentwise_Report" ref="A1:F24" headerRowCount="1">
+  <autoFilter ref="A1:F24"/>
   <tableColumns count="6">
     <tableColumn id="1" name="AGENT ID"/>
     <tableColumn id="2" name="CSAT1"/>
@@ -195,8 +195,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_Negative_Responses" displayName="Table_Negative_Responses" ref="A1:R9" headerRowCount="1">
-  <autoFilter ref="A1:R9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_Negative_Responses" displayName="Table_Negative_Responses" ref="A1:R10" headerRowCount="1">
+  <autoFilter ref="A1:R10"/>
   <tableColumns count="18">
     <tableColumn id="1" name="docketNumber"/>
     <tableColumn id="2" name="mobileNo"/>
@@ -222,8 +222,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_Daywise_Agent_Performance" displayName="Table_Daywise_Agent_Performance" ref="A1:G22" headerRowCount="1">
-  <autoFilter ref="A1:G22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_Daywise_Agent_Performance" displayName="Table_Daywise_Agent_Performance" ref="A1:G27" headerRowCount="1">
+  <autoFilter ref="A1:G27"/>
   <tableColumns count="7">
     <tableColumn id="1" name="DATE"/>
     <tableColumn id="2" name="AGENT ID"/>
@@ -573,23 +573,23 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>21</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>2.14</v>
+        <v>26</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>2.19</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="n">
+      <c r="A3" s="4" t="n">
         <v>45931</v>
       </c>
       <c r="B3" t="n">
@@ -598,61 +598,61 @@
       <c r="C3" t="n">
         <v>0</v>
       </c>
-      <c r="D3" s="6" t="n">
+      <c r="D3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="4" t="n">
+      <c r="F3" s="3" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="n">
+      <c r="A4" s="4" t="n">
         <v>45933</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
-      <c r="C4" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="6" t="n">
+      <c r="C4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>2</v>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="F4" s="3" t="n">
         <v>2.5</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="n">
+      <c r="A5" s="4" t="n">
         <v>45934</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="6" t="n">
         <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="6" t="n">
         <v>2</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
       </c>
-      <c r="F5" s="4" t="n">
+      <c r="F5" s="3" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="n">
+      <c r="A6" s="4" t="n">
         <v>45935</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="6" t="n">
         <v>2</v>
       </c>
       <c r="C6" t="n">
@@ -664,55 +664,55 @@
       <c r="E6" t="n">
         <v>2</v>
       </c>
-      <c r="F6" s="6" t="n">
+      <c r="F6" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="n">
+      <c r="A7" s="4" t="n">
         <v>45936</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="6" t="n">
         <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
-      <c r="D7" s="6" t="n">
+      <c r="D7" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E7" t="n">
         <v>3</v>
       </c>
-      <c r="F7" s="6" t="n">
+      <c r="F7" s="5" t="n">
         <v>1.67</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="n">
+      <c r="A8" s="4" t="n">
         <v>45937</v>
       </c>
-      <c r="B8" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3" t="n">
+      <c r="B8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6" t="n">
         <v>2</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
       </c>
-      <c r="F8" s="4" t="n">
+      <c r="F8" s="3" t="n">
         <v>2.25</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="n">
+      <c r="A9" s="4" t="n">
         <v>45938</v>
       </c>
-      <c r="B9" s="6" t="n">
+      <c r="B9" s="5" t="n">
         <v>1</v>
       </c>
       <c r="C9" t="n">
@@ -724,12 +724,12 @@
       <c r="E9" t="n">
         <v>1</v>
       </c>
-      <c r="F9" s="6" t="n">
+      <c r="F9" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="n">
+      <c r="A10" s="4" t="n">
         <v>45939</v>
       </c>
       <c r="B10" t="n">
@@ -738,18 +738,18 @@
       <c r="C10" t="n">
         <v>0</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="6" t="n">
         <v>2</v>
       </c>
       <c r="E10" t="n">
         <v>2</v>
       </c>
-      <c r="F10" s="4" t="n">
+      <c r="F10" s="3" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="n">
+      <c r="A11" s="4" t="n">
         <v>45940</v>
       </c>
       <c r="B11" t="n">
@@ -758,34 +758,34 @@
       <c r="C11" t="n">
         <v>0</v>
       </c>
-      <c r="D11" s="6" t="n">
+      <c r="D11" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
-      <c r="F11" s="4" t="n">
+      <c r="F11" s="3" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="n">
+      <c r="A12" s="4" t="n">
         <v>45941</v>
       </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="6" t="n">
-        <v>1</v>
+      <c r="B12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="4" t="n">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>
@@ -802,7 +802,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -848,7 +848,7 @@
           <t>SBM150</t>
         </is>
       </c>
-      <c r="B2" s="6" t="n">
+      <c r="B2" s="5" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
@@ -860,7 +860,7 @@
       <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="F2" s="6" t="n">
+      <c r="F2" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -871,19 +871,19 @@
         </is>
       </c>
       <c r="B3" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
-      <c r="D3" s="6" t="n">
+      <c r="D3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>1.67</v>
       </c>
     </row>
     <row r="4">
@@ -898,27 +898,27 @@
       <c r="C4" t="n">
         <v>0</v>
       </c>
-      <c r="D4" s="6" t="n">
+      <c r="D4" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="F4" s="3" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SBM554</t>
-        </is>
-      </c>
-      <c r="B5" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
+          <t>SBM481</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -926,124 +926,124 @@
       <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="F5" s="6" t="n">
-        <v>1</v>
+      <c r="F5" s="3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SBM692</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
+          <t>SBM554</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
-      <c r="D6" s="6" t="n">
-        <v>1</v>
+      <c r="D6" t="n">
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="4" t="n">
-        <v>3</v>
+      <c r="F6" s="5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SBM703</t>
-        </is>
-      </c>
-      <c r="B7" s="6" t="n">
-        <v>1</v>
+          <t>SBM692</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
-      <c r="D7" t="n">
-        <v>0</v>
+      <c r="D7" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
       </c>
-      <c r="F7" s="6" t="n">
-        <v>1</v>
+      <c r="F7" s="3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SBM744</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0</v>
+          <t>SBM703</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
-      <c r="D8" s="6" t="n">
-        <v>1</v>
+      <c r="D8" t="n">
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
       </c>
-      <c r="F8" s="4" t="n">
-        <v>3</v>
+      <c r="F8" s="5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SBM901</t>
-        </is>
-      </c>
-      <c r="B9" s="6" t="n">
-        <v>1</v>
+          <t>SBM744</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
+      <c r="D9" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
       </c>
-      <c r="F9" s="6" t="n">
-        <v>1</v>
+      <c r="F9" s="3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SBM967</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
+          <t>SBM901</t>
+        </is>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
-      <c r="D10" s="6" t="n">
-        <v>1</v>
+      <c r="D10" t="n">
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
-      <c r="F10" s="4" t="n">
-        <v>3</v>
+      <c r="F10" s="5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SBM990</t>
+          <t>SBM913</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1052,20 +1052,20 @@
       <c r="C11" t="n">
         <v>0</v>
       </c>
-      <c r="D11" s="6" t="n">
+      <c r="D11" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
-      <c r="F11" s="4" t="n">
+      <c r="F11" s="3" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>VPS111</t>
+          <t>SBM967</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1074,20 +1074,20 @@
       <c r="C12" t="n">
         <v>0</v>
       </c>
-      <c r="D12" s="6" t="n">
+      <c r="D12" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
       </c>
-      <c r="F12" s="4" t="n">
+      <c r="F12" s="3" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>VPS193</t>
+          <t>SBM990</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1096,20 +1096,20 @@
       <c r="C13" t="n">
         <v>0</v>
       </c>
-      <c r="D13" s="6" t="n">
+      <c r="D13" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
       </c>
-      <c r="F13" s="4" t="n">
+      <c r="F13" s="3" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>VPS214</t>
+          <t>VPS111</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1118,145 +1118,233 @@
       <c r="C14" t="n">
         <v>0</v>
       </c>
-      <c r="D14" s="6" t="n">
+      <c r="D14" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
       </c>
-      <c r="F14" s="4" t="n">
+      <c r="F14" s="3" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>VPS228</t>
-        </is>
-      </c>
-      <c r="B15" s="6" t="n">
-        <v>1</v>
+          <t>VPS193</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
-      <c r="D15" t="n">
-        <v>0</v>
+      <c r="D15" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
       </c>
-      <c r="F15" s="6" t="n">
-        <v>1</v>
+      <c r="F15" s="3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>VPS236</t>
-        </is>
-      </c>
-      <c r="B16" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
+          <t>VPS214</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
-      </c>
-      <c r="F16" s="6" t="n">
-        <v>1.5</v>
+        <v>1</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>VPS237</t>
-        </is>
-      </c>
-      <c r="B17" s="6" t="n">
-        <v>1</v>
+          <t>VPS215</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
+      <c r="D17" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
       </c>
-      <c r="F17" s="6" t="n">
-        <v>1</v>
+      <c r="F17" s="3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>VPS245</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0</v>
+          <t>VPS228</t>
+        </is>
+      </c>
+      <c r="B18" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
-      <c r="D18" s="6" t="n">
-        <v>1</v>
+      <c r="D18" t="n">
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
       </c>
-      <c r="F18" s="4" t="n">
-        <v>3</v>
+      <c r="F18" s="5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>VPS256</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" s="6" t="n">
+          <t>VPS236</t>
+        </is>
+      </c>
+      <c r="B19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="4" t="n">
         <v>2</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>VPS237</t>
+        </is>
+      </c>
+      <c r="B20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>VPS245</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>VPS256</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>VPS257</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
           <t>VPS264</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="4" t="n">
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1274,7 +1362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1446,7 +1534,7 @@
       <c r="Q2" t="n">
         <v>1</v>
       </c>
-      <c r="R2" s="5" t="n">
+      <c r="R2" s="4" t="n">
         <v>45934</v>
       </c>
     </row>
@@ -1522,7 +1610,7 @@
       <c r="Q3" t="n">
         <v>1</v>
       </c>
-      <c r="R3" s="5" t="n">
+      <c r="R3" s="4" t="n">
         <v>45934</v>
       </c>
     </row>
@@ -1598,7 +1686,7 @@
       <c r="Q4" t="n">
         <v>1</v>
       </c>
-      <c r="R4" s="5" t="n">
+      <c r="R4" s="4" t="n">
         <v>45935</v>
       </c>
     </row>
@@ -1674,7 +1762,7 @@
       <c r="Q5" t="n">
         <v>1</v>
       </c>
-      <c r="R5" s="5" t="n">
+      <c r="R5" s="4" t="n">
         <v>45935</v>
       </c>
     </row>
@@ -1750,7 +1838,7 @@
       <c r="Q6" t="n">
         <v>1</v>
       </c>
-      <c r="R6" s="5" t="n">
+      <c r="R6" s="4" t="n">
         <v>45936</v>
       </c>
     </row>
@@ -1826,7 +1914,7 @@
       <c r="Q7" t="n">
         <v>1</v>
       </c>
-      <c r="R7" s="5" t="n">
+      <c r="R7" s="4" t="n">
         <v>45936</v>
       </c>
     </row>
@@ -1902,7 +1990,7 @@
       <c r="Q8" t="n">
         <v>1</v>
       </c>
-      <c r="R8" s="5" t="n">
+      <c r="R8" s="4" t="n">
         <v>45937</v>
       </c>
     </row>
@@ -1978,8 +2066,84 @@
       <c r="Q9" t="n">
         <v>1</v>
       </c>
-      <c r="R9" s="5" t="n">
+      <c r="R9" s="4" t="n">
         <v>45938</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>J112666407381</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8807278983</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>11-10-2025 07:35 PM</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>CSAT 1</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>11-10-2025 07:36 PM</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>QUERY</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>PREPAID</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>SERVICES</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>DATA SERVICES</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>DATA BALANCE NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>BSS_WEST OA_1</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>CHENNAI</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>TAMILNADU</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>SBM202</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="4" t="n">
+        <v>45941</v>
       </c>
     </row>
   </sheetData>
@@ -1996,7 +2160,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2042,7 +2206,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="n">
+      <c r="A2" s="4" t="n">
         <v>45931</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -2062,12 +2226,12 @@
       <c r="F2" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="4" t="n">
+      <c r="G2" s="3" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="n">
+      <c r="A3" s="4" t="n">
         <v>45933</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -2087,12 +2251,12 @@
       <c r="F3" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="4" t="n">
+      <c r="G3" s="3" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="n">
+      <c r="A4" s="4" t="n">
         <v>45933</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -2103,7 +2267,7 @@
       <c r="C4" t="n">
         <v>0</v>
       </c>
-      <c r="D4" s="6" t="n">
+      <c r="D4" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
@@ -2112,12 +2276,12 @@
       <c r="F4" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="4" t="n">
+      <c r="G4" s="3" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="n">
+      <c r="A5" s="4" t="n">
         <v>45934</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -2125,7 +2289,7 @@
           <t>SBM554</t>
         </is>
       </c>
-      <c r="C5" s="6" t="n">
+      <c r="C5" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
@@ -2137,12 +2301,12 @@
       <c r="F5" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="6" t="n">
+      <c r="G5" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="n">
+      <c r="A6" s="4" t="n">
         <v>45934</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -2162,12 +2326,12 @@
       <c r="F6" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="4" t="n">
+      <c r="G6" s="3" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="n">
+      <c r="A7" s="4" t="n">
         <v>45934</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -2187,12 +2351,12 @@
       <c r="F7" t="n">
         <v>1</v>
       </c>
-      <c r="G7" s="4" t="n">
+      <c r="G7" s="3" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="n">
+      <c r="A8" s="4" t="n">
         <v>45934</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -2200,7 +2364,7 @@
           <t>VPS228</t>
         </is>
       </c>
-      <c r="C8" s="6" t="n">
+      <c r="C8" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D8" t="n">
@@ -2212,12 +2376,12 @@
       <c r="F8" t="n">
         <v>1</v>
       </c>
-      <c r="G8" s="6" t="n">
+      <c r="G8" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="n">
+      <c r="A9" s="4" t="n">
         <v>45935</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -2225,7 +2389,7 @@
           <t>VPS236</t>
         </is>
       </c>
-      <c r="C9" s="6" t="n">
+      <c r="C9" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
@@ -2237,12 +2401,12 @@
       <c r="F9" t="n">
         <v>1</v>
       </c>
-      <c r="G9" s="6" t="n">
+      <c r="G9" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="n">
+      <c r="A10" s="4" t="n">
         <v>45935</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -2250,7 +2414,7 @@
           <t>VPS237</t>
         </is>
       </c>
-      <c r="C10" s="6" t="n">
+      <c r="C10" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D10" t="n">
@@ -2262,12 +2426,12 @@
       <c r="F10" t="n">
         <v>1</v>
       </c>
-      <c r="G10" s="6" t="n">
+      <c r="G10" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="n">
+      <c r="A11" s="4" t="n">
         <v>45936</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -2275,7 +2439,7 @@
           <t>SBM150</t>
         </is>
       </c>
-      <c r="C11" s="6" t="n">
+      <c r="C11" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D11" t="n">
@@ -2287,12 +2451,12 @@
       <c r="F11" t="n">
         <v>1</v>
       </c>
-      <c r="G11" s="6" t="n">
+      <c r="G11" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="n">
+      <c r="A12" s="4" t="n">
         <v>45936</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -2300,7 +2464,7 @@
           <t>SBM901</t>
         </is>
       </c>
-      <c r="C12" s="6" t="n">
+      <c r="C12" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D12" t="n">
@@ -2312,12 +2476,12 @@
       <c r="F12" t="n">
         <v>1</v>
       </c>
-      <c r="G12" s="6" t="n">
+      <c r="G12" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="n">
+      <c r="A13" s="4" t="n">
         <v>45936</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -2337,12 +2501,12 @@
       <c r="F13" t="n">
         <v>1</v>
       </c>
-      <c r="G13" s="4" t="n">
+      <c r="G13" s="3" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="n">
+      <c r="A14" s="4" t="n">
         <v>45937</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -2362,12 +2526,12 @@
       <c r="F14" t="n">
         <v>1</v>
       </c>
-      <c r="G14" s="4" t="n">
+      <c r="G14" s="3" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="n">
+      <c r="A15" s="4" t="n">
         <v>45937</v>
       </c>
       <c r="B15" t="inlineStr">
@@ -2375,7 +2539,7 @@
           <t>SBM703</t>
         </is>
       </c>
-      <c r="C15" s="6" t="n">
+      <c r="C15" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D15" t="n">
@@ -2387,12 +2551,12 @@
       <c r="F15" t="n">
         <v>1</v>
       </c>
-      <c r="G15" s="6" t="n">
+      <c r="G15" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="n">
+      <c r="A16" s="4" t="n">
         <v>45937</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -2412,12 +2576,12 @@
       <c r="F16" t="n">
         <v>1</v>
       </c>
-      <c r="G16" s="4" t="n">
+      <c r="G16" s="3" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="n">
+      <c r="A17" s="4" t="n">
         <v>45937</v>
       </c>
       <c r="B17" t="inlineStr">
@@ -2428,7 +2592,7 @@
       <c r="C17" t="n">
         <v>0</v>
       </c>
-      <c r="D17" s="6" t="n">
+      <c r="D17" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E17" t="n">
@@ -2437,12 +2601,12 @@
       <c r="F17" t="n">
         <v>1</v>
       </c>
-      <c r="G17" s="4" t="n">
+      <c r="G17" s="3" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="n">
+      <c r="A18" s="4" t="n">
         <v>45938</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -2450,7 +2614,7 @@
           <t>SBM202</t>
         </is>
       </c>
-      <c r="C18" s="6" t="n">
+      <c r="C18" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D18" t="n">
@@ -2462,12 +2626,12 @@
       <c r="F18" t="n">
         <v>1</v>
       </c>
-      <c r="G18" s="6" t="n">
+      <c r="G18" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="n">
+      <c r="A19" s="4" t="n">
         <v>45939</v>
       </c>
       <c r="B19" t="inlineStr">
@@ -2487,12 +2651,12 @@
       <c r="F19" t="n">
         <v>1</v>
       </c>
-      <c r="G19" s="4" t="n">
+      <c r="G19" s="3" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="n">
+      <c r="A20" s="4" t="n">
         <v>45939</v>
       </c>
       <c r="B20" t="inlineStr">
@@ -2512,12 +2676,12 @@
       <c r="F20" t="n">
         <v>1</v>
       </c>
-      <c r="G20" s="4" t="n">
+      <c r="G20" s="3" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="n">
+      <c r="A21" s="4" t="n">
         <v>45940</v>
       </c>
       <c r="B21" t="inlineStr">
@@ -2537,32 +2701,157 @@
       <c r="F21" t="n">
         <v>1</v>
       </c>
-      <c r="G21" s="4" t="n">
+      <c r="G21" s="3" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="n">
+      <c r="A22" s="4" t="n">
         <v>45941</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>SBM202</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="n">
+        <v>45941</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>SBM481</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="n">
+        <v>45941</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>SBM913</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="n">
+        <v>45941</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
           <t>VPS193</t>
         </is>
       </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" s="4" t="n">
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="n">
+        <v>45941</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>VPS215</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="n">
+        <v>45941</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>VPS257</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3" t="n">
         <v>3</v>
       </c>
     </row>

--- a/CSAT_Performance_Reports.xlsx
+++ b/CSAT_Performance_Reports.xlsx
@@ -165,8 +165,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_Daywise_Report" displayName="Table_Daywise_Report" ref="A1:F12" headerRowCount="1">
-  <autoFilter ref="A1:F12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_Daywise_Report" displayName="Table_Daywise_Report" ref="A1:F13" headerRowCount="1">
+  <autoFilter ref="A1:F13"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Date"/>
     <tableColumn id="2" name="CSAT1"/>
@@ -180,8 +180,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_Agentwise_Report" displayName="Table_Agentwise_Report" ref="A1:F24" headerRowCount="1">
-  <autoFilter ref="A1:F24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_Agentwise_Report" displayName="Table_Agentwise_Report" ref="A1:F26" headerRowCount="1">
+  <autoFilter ref="A1:F26"/>
   <tableColumns count="6">
     <tableColumn id="1" name="AGENT ID"/>
     <tableColumn id="2" name="CSAT1"/>
@@ -195,8 +195,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_Negative_Responses" displayName="Table_Negative_Responses" ref="A1:R10" headerRowCount="1">
-  <autoFilter ref="A1:R10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_Negative_Responses" displayName="Table_Negative_Responses" ref="A1:R12" headerRowCount="1">
+  <autoFilter ref="A1:R12"/>
   <tableColumns count="18">
     <tableColumn id="1" name="docketNumber"/>
     <tableColumn id="2" name="mobileNo"/>
@@ -222,8 +222,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_Daywise_Agent_Performance" displayName="Table_Daywise_Agent_Performance" ref="A1:G27" headerRowCount="1">
-  <autoFilter ref="A1:G27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_Daywise_Agent_Performance" displayName="Table_Daywise_Agent_Performance" ref="A1:G30" headerRowCount="1">
+  <autoFilter ref="A1:G30"/>
   <tableColumns count="7">
     <tableColumn id="1" name="DATE"/>
     <tableColumn id="2" name="AGENT ID"/>
@@ -526,7 +526,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,19 +573,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>2.19</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="3">
@@ -786,6 +786,26 @@
       </c>
       <c r="F12" s="3" t="n">
         <v>2.5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="n">
+        <v>45942</v>
+      </c>
+      <c r="B13" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>1.67</v>
       </c>
     </row>
   </sheetData>
@@ -802,7 +822,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -955,7 +975,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SBM692</t>
+          <t>SBM625</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -977,7 +997,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SBM703</t>
+          <t>SBM692</t>
         </is>
       </c>
       <c r="B8" s="5" t="n">
@@ -986,86 +1006,86 @@
       <c r="C8" t="n">
         <v>0</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
+      <c r="D8" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SBM744</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
+          <t>SBM703</t>
+        </is>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
-      <c r="D9" s="5" t="n">
-        <v>1</v>
+      <c r="D9" t="n">
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
       </c>
-      <c r="F9" s="3" t="n">
-        <v>3</v>
+      <c r="F9" s="5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SBM901</t>
-        </is>
-      </c>
-      <c r="B10" s="5" t="n">
-        <v>1</v>
+          <t>SBM744</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
-      <c r="D10" t="n">
-        <v>0</v>
+      <c r="D10" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
-      <c r="F10" s="5" t="n">
-        <v>1</v>
+      <c r="F10" s="3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SBM913</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
+          <t>SBM901</t>
+        </is>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
-      <c r="D11" s="5" t="n">
-        <v>1</v>
+      <c r="D11" t="n">
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
-      <c r="F11" s="3" t="n">
-        <v>3</v>
+      <c r="F11" s="5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SBM967</t>
+          <t>SBM913</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1087,7 +1107,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SBM990</t>
+          <t>SBM967</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1109,7 +1129,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>VPS111</t>
+          <t>SBM990</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1131,7 +1151,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>VPS193</t>
+          <t>VPS111</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1153,7 +1173,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>VPS214</t>
+          <t>VPS193</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1175,73 +1195,73 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>VPS215</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0</v>
+          <t>VPS201</t>
+        </is>
+      </c>
+      <c r="B17" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
-      <c r="D17" s="5" t="n">
-        <v>1</v>
+      <c r="D17" t="n">
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
       </c>
-      <c r="F17" s="3" t="n">
-        <v>3</v>
+      <c r="F17" s="5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>VPS228</t>
-        </is>
-      </c>
-      <c r="B18" s="5" t="n">
-        <v>1</v>
+          <t>VPS214</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
-      <c r="D18" t="n">
-        <v>0</v>
+      <c r="D18" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
       </c>
-      <c r="F18" s="5" t="n">
-        <v>1</v>
+      <c r="F18" s="3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>VPS236</t>
-        </is>
-      </c>
-      <c r="B19" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
+          <t>VPS215</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
-      </c>
-      <c r="F19" s="5" t="n">
-        <v>1.5</v>
+        <v>1</v>
+      </c>
+      <c r="F19" s="3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>VPS237</t>
+          <t>VPS228</t>
         </is>
       </c>
       <c r="B20" s="5" t="n">
@@ -1263,36 +1283,36 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>VPS245</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="5" t="n">
-        <v>1</v>
+          <t>VPS236</t>
+        </is>
+      </c>
+      <c r="B21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>VPS256</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" s="5" t="n">
-        <v>1</v>
+          <t>VPS237</t>
+        </is>
+      </c>
+      <c r="B22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -1300,14 +1320,14 @@
       <c r="E22" t="n">
         <v>1</v>
       </c>
-      <c r="F22" s="3" t="n">
-        <v>2</v>
+      <c r="F22" s="5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>VPS257</t>
+          <t>VPS245</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1329,22 +1349,66 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>VPS256</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>VPS257</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>VPS264</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" s="3" t="n">
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1362,7 +1426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2144,6 +2208,158 @@
       </c>
       <c r="R10" s="4" t="n">
         <v>45941</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>J122466503161</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9488655034</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>12-10-2025 05:19 AM</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>CSAT 1</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>12-10-2025 05:36 AM</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>QUERY</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>PREPAID</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>SERVICES</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>PLANS AND VALIDITY DETAILS</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>ENQUIRY ON PREPAID PLANS</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NAGERCOIL</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>TAMILNADU</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>TAMILNADU</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>VPS201</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="4" t="n">
+        <v>45942</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>J122466560082</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>9488575181</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>12-10-2025 10:34 AM</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>CSAT 1</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>12-10-2025 10:37 AM</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>QUERY</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>PREPAID</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>SERVICES</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>DATA SERVICES</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>DATA BALANCE NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>TIRUNELVELI</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>TAMILNADU</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>TAMILNADU</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>SBM692</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="4" t="n">
+        <v>45942</v>
       </c>
     </row>
   </sheetData>
@@ -2160,7 +2376,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2855,6 +3071,81 @@
         <v>3</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" s="4" t="n">
+        <v>45942</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>SBM625</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="4" t="n">
+        <v>45942</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>SBM692</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="n">
+        <v>45942</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>VPS201</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">

--- a/CSAT_Performance_Reports.xlsx
+++ b/CSAT_Performance_Reports.xlsx
@@ -165,8 +165,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_Daywise_Report" displayName="Table_Daywise_Report" ref="A1:F13" headerRowCount="1">
-  <autoFilter ref="A1:F13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_Daywise_Report" displayName="Table_Daywise_Report" ref="A1:F15" headerRowCount="1">
+  <autoFilter ref="A1:F15"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Date"/>
     <tableColumn id="2" name="CSAT1"/>
@@ -180,8 +180,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_Agentwise_Report" displayName="Table_Agentwise_Report" ref="A1:F26" headerRowCount="1">
-  <autoFilter ref="A1:F26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_Agentwise_Report" displayName="Table_Agentwise_Report" ref="A1:F27" headerRowCount="1">
+  <autoFilter ref="A1:F27"/>
   <tableColumns count="6">
     <tableColumn id="1" name="AGENT ID"/>
     <tableColumn id="2" name="CSAT1"/>
@@ -195,8 +195,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_Negative_Responses" displayName="Table_Negative_Responses" ref="A1:R12" headerRowCount="1">
-  <autoFilter ref="A1:R12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_Negative_Responses" displayName="Table_Negative_Responses" ref="A1:R13" headerRowCount="1">
+  <autoFilter ref="A1:R13"/>
   <tableColumns count="18">
     <tableColumn id="1" name="docketNumber"/>
     <tableColumn id="2" name="mobileNo"/>
@@ -222,8 +222,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_Daywise_Agent_Performance" displayName="Table_Daywise_Agent_Performance" ref="A1:G30" headerRowCount="1">
-  <autoFilter ref="A1:G30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_Daywise_Agent_Performance" displayName="Table_Daywise_Agent_Performance" ref="A1:G32" headerRowCount="1">
+  <autoFilter ref="A1:G32"/>
   <tableColumns count="7">
     <tableColumn id="1" name="DATE"/>
     <tableColumn id="2" name="AGENT ID"/>
@@ -526,7 +526,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,19 +573,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>2.14</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="3">
@@ -806,6 +806,46 @@
       </c>
       <c r="F13" s="5" t="n">
         <v>1.67</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="n">
+        <v>45943</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="n">
+        <v>45944</v>
+      </c>
+      <c r="B15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -822,7 +862,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1116,11 +1156,11 @@
       <c r="C13" t="n">
         <v>0</v>
       </c>
-      <c r="D13" s="5" t="n">
-        <v>1</v>
+      <c r="D13" s="6" t="n">
+        <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" s="3" t="n">
         <v>3</v>
@@ -1349,14 +1389,14 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>VPS256</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" s="5" t="n">
-        <v>1</v>
+          <t>VPS248</t>
+        </is>
+      </c>
+      <c r="B24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -1364,51 +1404,73 @@
       <c r="E24" t="n">
         <v>1</v>
       </c>
-      <c r="F24" s="3" t="n">
-        <v>2</v>
+      <c r="F24" s="5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>VPS257</t>
+          <t>VPS256</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>0</v>
       </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" s="5" t="n">
-        <v>1</v>
+      <c r="C25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
       </c>
       <c r="F25" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>VPS257</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
           <t>VPS264</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" s="3" t="n">
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1426,7 +1488,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2360,6 +2422,82 @@
       </c>
       <c r="R12" s="4" t="n">
         <v>45942</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>J142467211139</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>9840814858</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>14-10-2025 07:49 PM</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>CSAT 1</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>14-10-2025 08:51 PM</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>QUERY</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>PREPAID</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>SERVICES</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>DATA SERVICES</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>DATA ACTIVATION</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>DHARMAPURI</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>TAMILNADU</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>TAMILNADU</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>VPS248</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="4" t="n">
+        <v>45944</v>
       </c>
     </row>
   </sheetData>
@@ -2376,7 +2514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3146,6 +3284,56 @@
         <v>1</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" s="4" t="n">
+        <v>45943</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>SBM967</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="n">
+        <v>45944</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>VPS248</t>
+        </is>
+      </c>
+      <c r="C32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">

--- a/CSAT_Performance_Reports.xlsx
+++ b/CSAT_Performance_Reports.xlsx
@@ -165,8 +165,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_Daywise_Report" displayName="Table_Daywise_Report" ref="A1:F15" headerRowCount="1">
-  <autoFilter ref="A1:F15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_Daywise_Report" displayName="Table_Daywise_Report" ref="A1:F16" headerRowCount="1">
+  <autoFilter ref="A1:F16"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Date"/>
     <tableColumn id="2" name="CSAT1"/>
@@ -180,8 +180,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_Agentwise_Report" displayName="Table_Agentwise_Report" ref="A1:F27" headerRowCount="1">
-  <autoFilter ref="A1:F27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_Agentwise_Report" displayName="Table_Agentwise_Report" ref="A1:F28" headerRowCount="1">
+  <autoFilter ref="A1:F28"/>
   <tableColumns count="6">
     <tableColumn id="1" name="AGENT ID"/>
     <tableColumn id="2" name="CSAT1"/>
@@ -195,8 +195,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_Negative_Responses" displayName="Table_Negative_Responses" ref="A1:R13" headerRowCount="1">
-  <autoFilter ref="A1:R13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_Negative_Responses" displayName="Table_Negative_Responses" ref="A1:R14" headerRowCount="1">
+  <autoFilter ref="A1:R14"/>
   <tableColumns count="18">
     <tableColumn id="1" name="docketNumber"/>
     <tableColumn id="2" name="mobileNo"/>
@@ -222,8 +222,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_Daywise_Agent_Performance" displayName="Table_Daywise_Agent_Performance" ref="A1:G32" headerRowCount="1">
-  <autoFilter ref="A1:G32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_Daywise_Agent_Performance" displayName="Table_Daywise_Agent_Performance" ref="A1:G33" headerRowCount="1">
+  <autoFilter ref="A1:G33"/>
   <tableColumns count="7">
     <tableColumn id="1" name="DATE"/>
     <tableColumn id="2" name="AGENT ID"/>
@@ -526,7 +526,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,19 +573,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E2" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>2.13</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="3">
@@ -818,11 +818,11 @@
       <c r="C14" t="n">
         <v>0</v>
       </c>
-      <c r="D14" s="5" t="n">
-        <v>1</v>
+      <c r="D14" s="6" t="n">
+        <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" s="3" t="n">
         <v>3</v>
@@ -832,8 +832,8 @@
       <c r="A15" s="4" t="n">
         <v>45944</v>
       </c>
-      <c r="B15" s="5" t="n">
-        <v>1</v>
+      <c r="B15" s="6" t="n">
+        <v>2</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -842,10 +842,30 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="5" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -862,7 +882,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -949,7 +969,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SBM422</t>
+          <t>SBM267</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -971,36 +991,36 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SBM481</t>
+          <t>SBM422</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
-      <c r="C5" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SBM554</t>
-        </is>
-      </c>
-      <c r="B6" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
+          <t>SBM481</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -1008,40 +1028,40 @@
       <c r="E6" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="5" t="n">
-        <v>1</v>
+      <c r="F6" s="3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SBM625</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
+          <t>SBM554</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
-      <c r="D7" s="5" t="n">
-        <v>1</v>
+      <c r="D7" t="n">
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
       </c>
-      <c r="F7" s="3" t="n">
-        <v>3</v>
+      <c r="F7" s="5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SBM692</t>
-        </is>
-      </c>
-      <c r="B8" s="5" t="n">
-        <v>1</v>
+          <t>SBM625</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1050,16 +1070,16 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SBM703</t>
+          <t>SBM692</t>
         </is>
       </c>
       <c r="B9" s="5" t="n">
@@ -1068,86 +1088,86 @@
       <c r="C9" t="n">
         <v>0</v>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
+      <c r="D9" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SBM744</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
+          <t>SBM703</t>
+        </is>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
-      <c r="D10" s="5" t="n">
-        <v>1</v>
+      <c r="D10" t="n">
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
-      <c r="F10" s="3" t="n">
-        <v>3</v>
+      <c r="F10" s="5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SBM901</t>
-        </is>
-      </c>
-      <c r="B11" s="5" t="n">
-        <v>1</v>
+          <t>SBM744</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
+      <c r="D11" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
-      <c r="F11" s="5" t="n">
-        <v>1</v>
+      <c r="F11" s="3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SBM913</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
+          <t>SBM901</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
-      <c r="D12" s="5" t="n">
-        <v>1</v>
+      <c r="D12" t="n">
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
       </c>
-      <c r="F12" s="3" t="n">
-        <v>3</v>
+      <c r="F12" s="5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SBM967</t>
+          <t>SBM913</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1156,11 +1176,11 @@
       <c r="C13" t="n">
         <v>0</v>
       </c>
-      <c r="D13" s="6" t="n">
-        <v>2</v>
+      <c r="D13" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" s="3" t="n">
         <v>3</v>
@@ -1169,7 +1189,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SBM990</t>
+          <t>SBM967</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1178,11 +1198,11 @@
       <c r="C14" t="n">
         <v>0</v>
       </c>
-      <c r="D14" s="5" t="n">
-        <v>1</v>
+      <c r="D14" s="3" t="n">
+        <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14" s="3" t="n">
         <v>3</v>
@@ -1191,7 +1211,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>VPS111</t>
+          <t>SBM990</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1213,7 +1233,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>VPS193</t>
+          <t>VPS111</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1235,51 +1255,51 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>VPS201</t>
-        </is>
-      </c>
-      <c r="B17" s="5" t="n">
-        <v>1</v>
+          <t>VPS193</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
+      <c r="D17" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
       </c>
-      <c r="F17" s="5" t="n">
-        <v>1</v>
+      <c r="F17" s="3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>VPS214</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0</v>
+          <t>VPS201</t>
+        </is>
+      </c>
+      <c r="B18" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
-      <c r="D18" s="5" t="n">
-        <v>1</v>
+      <c r="D18" t="n">
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
       </c>
-      <c r="F18" s="3" t="n">
-        <v>3</v>
+      <c r="F18" s="5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>VPS215</t>
+          <t>VPS214</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1301,176 +1321,198 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>VPS228</t>
-        </is>
-      </c>
-      <c r="B20" s="5" t="n">
-        <v>1</v>
+          <t>VPS215</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
+      <c r="D20" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
       </c>
-      <c r="F20" s="5" t="n">
-        <v>1</v>
+      <c r="F20" s="3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>VPS236</t>
+          <t>VPS228</t>
         </is>
       </c>
       <c r="B21" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C21" s="5" t="n">
-        <v>1</v>
+      <c r="C21" t="n">
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>VPS237</t>
+          <t>VPS236</t>
         </is>
       </c>
       <c r="B22" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C22" t="n">
-        <v>0</v>
+      <c r="C22" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>VPS245</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0</v>
+          <t>VPS237</t>
+        </is>
+      </c>
+      <c r="B23" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
-      <c r="D23" s="5" t="n">
-        <v>1</v>
+      <c r="D23" t="n">
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
       </c>
-      <c r="F23" s="3" t="n">
-        <v>3</v>
+      <c r="F23" s="5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>VPS248</t>
-        </is>
-      </c>
-      <c r="B24" s="5" t="n">
-        <v>1</v>
+          <t>VPS245</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
-      <c r="D24" t="n">
-        <v>0</v>
+      <c r="D24" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
       </c>
-      <c r="F24" s="5" t="n">
-        <v>1</v>
+      <c r="F24" s="3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>VPS256</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" s="5" t="n">
-        <v>1</v>
+          <t>VPS248</t>
+        </is>
+      </c>
+      <c r="B25" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" s="3" t="n">
         <v>2</v>
+      </c>
+      <c r="F25" s="5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>VPS257</t>
+          <t>VPS256</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>0</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" s="5" t="n">
-        <v>1</v>
+      <c r="C26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>1</v>
       </c>
       <c r="F26" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>VPS257</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
           <t>VPS264</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>0</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" s="3" t="n">
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1488,7 +1530,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2497,6 +2539,82 @@
         <v>1</v>
       </c>
       <c r="R13" s="4" t="n">
+        <v>45944</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>J142467211139</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9840814858</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>14-10-2025 07:49 PM</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>CSAT 1</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>14-10-2025 08:51 PM</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>QUERY</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>PREPAID</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>SERVICES</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>DATA SERVICES</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>DATA ACTIVATION</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>DHARMAPURI</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>TAMILNADU</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>TAMILNADU</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>VPS248</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="4" t="n">
         <v>45944</v>
       </c>
     </row>
@@ -2514,7 +2632,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3300,10 +3418,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31" s="3" t="n">
         <v>3</v>
@@ -3318,8 +3436,8 @@
           <t>VPS248</t>
         </is>
       </c>
-      <c r="C32" s="5" t="n">
-        <v>1</v>
+      <c r="C32" s="6" t="n">
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3328,10 +3446,35 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G32" s="5" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="4" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>SBM267</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/CSAT_Performance_Reports.xlsx
+++ b/CSAT_Performance_Reports.xlsx
@@ -165,8 +165,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_Daywise_Report" displayName="Table_Daywise_Report" ref="A1:F20" headerRowCount="1">
-  <autoFilter ref="A1:F20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_Daywise_Report" displayName="Table_Daywise_Report" ref="A1:F31" headerRowCount="1">
+  <autoFilter ref="A1:F31"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Date"/>
     <tableColumn id="2" name="CSAT1"/>
@@ -180,8 +180,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_Agentwise_Report" displayName="Table_Agentwise_Report" ref="A1:F33" headerRowCount="1">
-  <autoFilter ref="A1:F33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_Agentwise_Report" displayName="Table_Agentwise_Report" ref="A1:F42" headerRowCount="1">
+  <autoFilter ref="A1:F42"/>
   <tableColumns count="6">
     <tableColumn id="1" name="AGENT ID"/>
     <tableColumn id="2" name="CSAT1"/>
@@ -195,8 +195,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_Negative_Responses" displayName="Table_Negative_Responses" ref="A1:R16" headerRowCount="1">
-  <autoFilter ref="A1:R16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_Negative_Responses" displayName="Table_Negative_Responses" ref="A1:R22" headerRowCount="1">
+  <autoFilter ref="A1:R22"/>
   <tableColumns count="18">
     <tableColumn id="1" name="docketNumber"/>
     <tableColumn id="2" name="mobileNo"/>
@@ -222,8 +222,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_Daywise_Agent_Performance" displayName="Table_Daywise_Agent_Performance" ref="A1:G41" headerRowCount="1">
-  <autoFilter ref="A1:G41"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_Daywise_Agent_Performance" displayName="Table_Daywise_Agent_Performance" ref="A1:G59" headerRowCount="1">
+  <autoFilter ref="A1:G59"/>
   <tableColumns count="7">
     <tableColumn id="1" name="DATE"/>
     <tableColumn id="2" name="AGENT ID"/>
@@ -526,7 +526,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,19 +573,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
-      </c>
-      <c r="C2" s="3" t="n">
-        <v>3</v>
+        <v>21</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E2" t="n">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>2.17</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="3">
@@ -946,6 +946,226 @@
       </c>
       <c r="F20" s="3" t="n">
         <v>2.33</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="n">
+        <v>45953</v>
+      </c>
+      <c r="B22" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="n">
+        <v>45954</v>
+      </c>
+      <c r="B23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="n">
+        <v>45955</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="n">
+        <v>45956</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3</v>
+      </c>
+      <c r="F27" s="3" t="n">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="4" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="n">
+        <v>45962</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="3" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -962,7 +1182,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1027,11 +1247,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SBM202</t>
-        </is>
-      </c>
-      <c r="B3" s="6" t="n">
-        <v>2</v>
+          <t>SBM157</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1040,20 +1260,20 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
-      </c>
-      <c r="F3" s="5" t="n">
-        <v>1.67</v>
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SBM267</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
+          <t>SBM202</t>
+        </is>
+      </c>
+      <c r="B4" s="6" t="n">
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -1062,16 +1282,16 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3" t="n">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>1.67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SBM422</t>
+          <t>SBM267</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1093,51 +1313,51 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SBM481</t>
-        </is>
-      </c>
-      <c r="B6" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
+          <t>SBM422</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SBM554</t>
+          <t>SBM481</t>
         </is>
       </c>
       <c r="B7" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5" t="n">
-        <v>1</v>
+      <c r="C7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>2</v>
       </c>
-      <c r="F7" s="3" t="n">
-        <v>2</v>
+      <c r="F7" s="5" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SBM625</t>
+          <t>SBM485</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1159,7 +1379,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SBM692</t>
+          <t>SBM550</t>
         </is>
       </c>
       <c r="B9" s="5" t="n">
@@ -1181,7 +1401,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SBM703</t>
+          <t>SBM554</t>
         </is>
       </c>
       <c r="B10" s="5" t="n">
@@ -1190,20 +1410,20 @@
       <c r="C10" t="n">
         <v>0</v>
       </c>
-      <c r="D10" t="n">
-        <v>0</v>
+      <c r="D10" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SBM744</t>
+          <t>SBM625</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1225,7 +1445,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SBM901</t>
+          <t>SBM692</t>
         </is>
       </c>
       <c r="B12" s="5" t="n">
@@ -1234,64 +1454,64 @@
       <c r="C12" t="n">
         <v>0</v>
       </c>
-      <c r="D12" t="n">
-        <v>0</v>
+      <c r="D12" s="6" t="n">
+        <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="5" t="n">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>2.33</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SBM913</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
+          <t>SBM703</t>
+        </is>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
-      <c r="D13" s="5" t="n">
-        <v>1</v>
+      <c r="D13" t="n">
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
       </c>
-      <c r="F13" s="3" t="n">
-        <v>3</v>
+      <c r="F13" s="5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SBM967</t>
+          <t>SBM710</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="6" t="n">
+      <c r="C14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3" t="n">
         <v>2</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2</v>
-      </c>
-      <c r="F14" s="3" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SBM990</t>
+          <t>SBM724</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1313,7 +1533,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>VPS111</t>
+          <t>SBM744</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1335,29 +1555,29 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>VPS143</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0</v>
+          <t>SBM901</t>
+        </is>
+      </c>
+      <c r="B17" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
-      <c r="D17" s="5" t="n">
-        <v>1</v>
+      <c r="D17" t="n">
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
       </c>
-      <c r="F17" s="3" t="n">
-        <v>3</v>
+      <c r="F17" s="5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>VPS177</t>
+          <t>SBM913</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1379,7 +1599,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>VPS191</t>
+          <t>SBM967</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1388,11 +1608,11 @@
       <c r="C19" t="n">
         <v>0</v>
       </c>
-      <c r="D19" s="5" t="n">
-        <v>1</v>
+      <c r="D19" s="3" t="n">
+        <v>3</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19" s="3" t="n">
         <v>3</v>
@@ -1401,11 +1621,11 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>VPS193</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0</v>
+          <t>SBM990</t>
+        </is>
+      </c>
+      <c r="B20" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1414,38 +1634,38 @@
         <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>VPS201</t>
-        </is>
-      </c>
-      <c r="B21" s="5" t="n">
-        <v>1</v>
+          <t>VPS111</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
-      <c r="D21" t="n">
-        <v>0</v>
+      <c r="D21" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
       </c>
-      <c r="F21" s="5" t="n">
-        <v>1</v>
+      <c r="F21" s="3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>VPS214</t>
+          <t>VPS143</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1467,7 +1687,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>VPS215</t>
+          <t>VPS177</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1489,95 +1709,95 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>VPS228</t>
-        </is>
-      </c>
-      <c r="B24" s="5" t="n">
-        <v>1</v>
+          <t>VPS191</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
-      <c r="D24" t="n">
-        <v>0</v>
+      <c r="D24" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
       </c>
-      <c r="F24" s="5" t="n">
-        <v>1</v>
+      <c r="F24" s="3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>VPS230</t>
-        </is>
-      </c>
-      <c r="B25" s="5" t="n">
-        <v>1</v>
+          <t>VPS193</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
-      <c r="D25" t="n">
-        <v>0</v>
+      <c r="D25" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
       </c>
-      <c r="F25" s="5" t="n">
-        <v>1</v>
+      <c r="F25" s="3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>VPS236</t>
+          <t>VPS201</t>
         </is>
       </c>
       <c r="B26" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C26" s="5" t="n">
-        <v>1</v>
+      <c r="C26" t="n">
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>VPS237</t>
-        </is>
-      </c>
-      <c r="B27" s="5" t="n">
-        <v>1</v>
+          <t>VPS214</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
-      <c r="D27" t="n">
-        <v>0</v>
+      <c r="D27" s="6" t="n">
+        <v>2</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F27" s="3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>VPS245</t>
+          <t>VPS215</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1599,7 +1819,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>VPS248</t>
+          <t>VPS228</t>
         </is>
       </c>
       <c r="B29" s="5" t="n">
@@ -1608,27 +1828,27 @@
       <c r="C29" t="n">
         <v>0</v>
       </c>
-      <c r="D29" s="5" t="n">
-        <v>1</v>
+      <c r="D29" t="n">
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>2</v>
-      </c>
-      <c r="F29" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F29" s="5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>VPS256</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>0</v>
-      </c>
-      <c r="C30" s="5" t="n">
-        <v>1</v>
+          <t>VPS230</t>
+        </is>
+      </c>
+      <c r="B30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -1636,40 +1856,40 @@
       <c r="E30" t="n">
         <v>1</v>
       </c>
-      <c r="F30" s="3" t="n">
-        <v>2</v>
+      <c r="F30" s="5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>VPS257</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" s="5" t="n">
-        <v>1</v>
+          <t>VPS236</t>
+        </is>
+      </c>
+      <c r="B31" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
-      </c>
-      <c r="F31" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F31" s="5" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>VPS264</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0</v>
+          <t>VPS237</t>
+        </is>
+      </c>
+      <c r="B32" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -1678,32 +1898,230 @@
         <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>VPS244</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>VPS245</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>VPS248</t>
+        </is>
+      </c>
+      <c r="B35" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2</v>
+      </c>
+      <c r="F35" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>VPS252</t>
+        </is>
+      </c>
+      <c r="B36" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>VPS256</t>
+        </is>
+      </c>
+      <c r="B37" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2</v>
+      </c>
+      <c r="F37" s="5" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>VPS257</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>VPS264</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
           <t>VPS271</t>
         </is>
       </c>
-      <c r="B33" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>1</v>
-      </c>
-      <c r="F33" s="5" t="n">
-        <v>1</v>
+      <c r="B40" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2</v>
+      </c>
+      <c r="F40" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>VPS273</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>VPS274</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" s="3" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1720,7 +2138,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2958,6 +3376,462 @@
       </c>
       <c r="R16" s="4" t="n">
         <v>45951</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>J232669544511</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>9444946102</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>23-10-2025 10:29 AM</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CSAT 1 </t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>23-10-2025 12:08 PM</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>QUERY</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>PREPAID</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>SERVICES</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>RECHARGE ISSUE</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>PLAN TRANSFER</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>BSS_NORTH OA_3</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>CHENNAI</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>TAMILNADU</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>SBM550</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" s="4" t="n">
+        <v>45953</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>J232569672168</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9744810529</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>23-10-2025 08:06 PM</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>CSAT 1</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>23-10-2025 08:10 PM</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>QUERY</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>PREPAID</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>SERVICES</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>VOICE SERVICES</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>WEAK SIGNAL</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>QUILON</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>KERALA</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>KERALA</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>SBM422</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" s="4" t="n">
+        <v>45953</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>J232469675328</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>9443578895</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>23-10-2025 08:23 PM</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>CSAT=1</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>23-10-2025 08:25 PM</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>QUERY</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>PREPAID</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>SERVICES</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>PLANS AND VALIDITY DETAILS</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>ENQUIRY ON BALANCE AND VALIDITY</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>TUTICORIN</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>TAMILNADU</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>TAMILNADU</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>SBM422</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" s="4" t="n">
+        <v>45953</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>J242469942249</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>9600647254</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>24-10-2025 07:19 PM</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>CSAT 1</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>24-10-2025 07:22 PM</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>QUERY</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>PREPAID</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>SERVICES</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>DATA SERVICES</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>UNABLE TO BROWSE DATA</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>TRICHY</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>TAMILNADU</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>TAMILNADU</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>VPS256</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" s="4" t="n">
+        <v>45954</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>J272570739475</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>9497530483</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>27-10-2025 03:04 PM</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>CSAT 1</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>27-10-2025 03:30 PM</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>QUERY</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>PREPAID</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>SERVICES</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>VOICE SERVICES</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>UNIFIED SIM</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>MALAPPURAM</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>KERALA</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>KERALA</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>VPS252</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" s="4" t="n">
+        <v>45957</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>J312571859292</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>9847105985</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>31-10-2025 12:07 PM</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>CSAT  1</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>31-10-2025 12:16 PM</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>QUERY</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>PREPAID</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>SERVICES</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>BLANK CALL</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>CUSTOMER DISCONNECTED THE CALL</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>THIRUVANANTHPURAM</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>KERALA</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>KERALA</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>SBM990</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" s="4" t="n">
+        <v>45961</v>
       </c>
     </row>
   </sheetData>
@@ -2974,7 +3848,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4019,6 +4893,456 @@
         <v>1</v>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" s="4" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>SBM485</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="4" t="n">
+        <v>45953</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>SBM422</t>
+        </is>
+      </c>
+      <c r="C43" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2</v>
+      </c>
+      <c r="G43" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="4" t="n">
+        <v>45953</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>SBM550</t>
+        </is>
+      </c>
+      <c r="C44" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="4" t="n">
+        <v>45954</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>VPS256</t>
+        </is>
+      </c>
+      <c r="C45" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="4" t="n">
+        <v>45955</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>VPS237</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="4" t="n">
+        <v>45955</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>VPS244</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="4" t="n">
+        <v>45955</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>VPS271</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="4" t="n">
+        <v>45956</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>SBM724</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="4" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>VPS252</t>
+        </is>
+      </c>
+      <c r="C50" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="4" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>SBM157</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>SBM710</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="4" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>VPS274</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>SBM550</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="4" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>SBM692</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="4" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>VPS214</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="4" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>SBM990</t>
+        </is>
+      </c>
+      <c r="C57" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="4" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>VPS273</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="4" t="n">
+        <v>45962</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>SBM967</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
